--- a/profs/xlsx/Расписание Кузнецов Иван Михайлович.xlsx
+++ b/profs/xlsx/Расписание Кузнецов Иван Михайлович.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Кузнецов И.М.</t>
@@ -57,9 +57,7 @@
     <t xml:space="preserve">Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.136(3), Алгоритмические языки и программирование, ЛР, М3О-213Б-17 (29.10-10.12) 
----
-ауд.413(3), Основы автоматизированного проектирования, ЛК, 3О-503С-14 (03.09-24.12) </t>
+    <t xml:space="preserve">ауд.413(3), Основы автоматизированного проектирования, ЛК, 3О-503С-14 (10.09-24.12) </t>
   </si>
   <si>
     <t xml:space="preserve">ауд.136(3), Алгоритмические языки и программирование, ЛР, М3О-213Б-17 (29.10-10.12) </t>
@@ -86,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">ауд.136(3), Основы автоматизированного проектирования, ЛР, 3О-503С-14 (14.11-26.12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.145(3), Основы автоматизированного проектирования, ЛК, 3О-503С-14 (14.11) </t>
   </si>
   <si>
     <t xml:space="preserve">Четверг</t>
@@ -170,16 +171,16 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,221 +399,225 @@
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
@@ -621,7 +626,7 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>

--- a/profs/xlsx/Расписание Кузнецов Иван Михайлович.xlsx
+++ b/profs/xlsx/Расписание Кузнецов Иван Михайлович.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -348,8 +348,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
